--- a/src/test/resources/TestData/lmsData.xlsx
+++ b/src/test/resources/TestData/lmsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezhilvanan/eclipse-workspace/SDET/DS-Algo/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prade\Documents\lms-Hackathon\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B750E52B-979E-B840-B8D6-FB9689EEACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F47077-11F0-4386-9B0C-E429F282CE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{687DD5F8-7414-2A46-9853-9C0A9C892FD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{687DD5F8-7414-2A46-9853-9C0A9C892FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -433,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731ABFE1-2295-1B45-94C3-DB70546B774C}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -452,7 +450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -463,7 +461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -474,7 +472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -484,12 +482,6 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -504,24 +496,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
